--- a/data/trans_camb/LAWTONB_2R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Edad-trans_camb.xlsx
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 5,18</t>
+          <t>-6,77; 5,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -1,25</t>
+          <t>-11,71; -0,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,33</t>
+          <t>-7,55; 2,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 6,69</t>
+          <t>-5,21; 6,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,1</t>
+          <t>-4,16; 8,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 1,94</t>
+          <t>-19,96; 0,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,2</t>
+          <t>-4,15; 4,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 2,26</t>
+          <t>-5,59; 2,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 0,02</t>
+          <t>-13,11; 0,05</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 38,85</t>
+          <t>-35,28; 36,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,27; -6,22</t>
+          <t>-61,05; -5,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 26,34</t>
+          <t>-38,53; 20,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 38,52</t>
+          <t>-22,3; 35,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 47,2</t>
+          <t>-18,11; 46,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 10,06</t>
+          <t>-77,5; 4,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 26,07</t>
+          <t>-20,61; 24,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 14,91</t>
+          <t>-28,64; 13,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 0,09</t>
+          <t>-65,26; -1,07</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 10,3</t>
+          <t>-7,7; 11,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 4,35</t>
+          <t>-13,15; 3,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,94</t>
+          <t>-9,08; 7,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 13,61</t>
+          <t>-2,89; 13,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 7,27</t>
+          <t>-8,35; 7,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,0; 19,61</t>
+          <t>6,07; 18,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 9,65</t>
+          <t>-2,14; 10,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 3,67</t>
+          <t>-8,1; 4,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,71</t>
+          <t>1,35; 12,58</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 28,57</t>
+          <t>-17,22; 31,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 12,33</t>
+          <t>-28,59; 8,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 23,12</t>
+          <t>-20,17; 20,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 29,69</t>
+          <t>-5,26; 29,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 16,25</t>
+          <t>-15,7; 17,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>11,14; 44,56</t>
+          <t>11,14; 43,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 22,31</t>
+          <t>-4,57; 24,48</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 8,78</t>
+          <t>-16,95; 9,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,83; 30,23</t>
+          <t>3,08; 30,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,59; 6,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,09; -0,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,83</t>
+          <t>-5,73; 3,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,81; 10,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-4,1; 6,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 8,4</t>
+          <t>-18,01; 8,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,84; 6,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,21; 2,3</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 4,29</t>
+          <t>-11,56; 4,48</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-16,17; 27,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,16; -1,34</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 16,55</t>
+          <t>-19,63; 16,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,19; 31,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-11,26; 19,51</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 25,71</t>
+          <t>-51,56; 25,93</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-5,51; 22,39</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,82; 7,81</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 14,3</t>
+          <t>-34,23; 14,71</t>
         </is>
       </c>
     </row>
